--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>toddler@10</t>
   </si>
@@ -91,25 +91,16 @@
     <t>W1</t>
   </si>
   <si>
-    <t>W2</t>
-  </si>
-  <si>
     <t>1/27/2018</t>
   </si>
   <si>
     <t>3/26/2018</t>
   </si>
   <si>
-    <t>3/27/2018</t>
-  </si>
-  <si>
-    <t>10/26/2018</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
+    <t>206534643</t>
   </si>
 </sst>
 </file>
@@ -154,11 +145,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,7 +435,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,8 +458,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>206534643</v>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -545,11 +537,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -586,36 +576,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -15,6 +15,7 @@
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="2" r:id="rId2"/>
     <sheet name="Windows" sheetId="3" r:id="rId3"/>
+    <sheet name="License" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>toddler@10</t>
   </si>
@@ -91,16 +92,16 @@
     <t>W1</t>
   </si>
   <si>
-    <t>1/27/2018</t>
-  </si>
-  <si>
-    <t>3/26/2018</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>206534643</t>
+    <t>LicenseType</t>
+  </si>
+  <si>
+    <t>LicenseAmount</t>
+  </si>
+  <si>
+    <t>License Fee</t>
+  </si>
+  <si>
+    <t>W2</t>
   </si>
 </sst>
 </file>
@@ -148,9 +149,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,7 +436,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,8 +459,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
+      <c r="B2" s="3">
+        <v>206534643</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -481,7 +482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -537,9 +540,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -575,17 +580,83 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4">
+        <v>43131</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43185</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43186</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43246</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;CClassification: NBCUniversal Internal </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
+      <c r="C2" s="3">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>toddler@10</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>W2</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Mohammed Saquib [ 206534643 ]</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +450,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -454,8 +460,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -464,6 +473,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -542,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,16 +593,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="4">
-        <v>43131</v>
+        <v>43137</v>
       </c>
       <c r="D2" s="4">
-        <v>43185</v>
+        <v>43190</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,16 +613,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="4">
-        <v>43186</v>
+        <v>43191</v>
       </c>
       <c r="D3" s="4">
-        <v>43246</v>
+        <v>43247</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -626,9 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>toddler@10</t>
   </si>
@@ -56,9 +56,6 @@
     <t>LEGAL</t>
   </si>
   <si>
-    <t>Title-1</t>
-  </si>
-  <si>
     <t>TcNo</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>NegotiatedBy</t>
   </si>
   <si>
-    <t>TitleName</t>
-  </si>
-  <si>
     <t>Window</t>
   </si>
   <si>
@@ -108,6 +102,21 @@
   </si>
   <si>
     <t>Mohammed Saquib [ 206534643 ]</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>USA Network</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Business Affairs</t>
+  </si>
+  <si>
+    <t>Telemundo</t>
   </si>
 </sst>
 </file>
@@ -441,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,24 +513,24 @@
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,7 +547,24 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -552,10 +578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,22 +593,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4">
         <v>43137</v>
@@ -610,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <v>43191</v>
@@ -622,6 +648,46 @@
         <v>2</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43137</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43190</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43191</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43247</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -636,9 +702,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -649,13 +715,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,9 +729,20 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3">
         <v>4000</v>
       </c>
     </row>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>toddler@10</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>USA Network</t>
-  </si>
-  <si>
     <t>TC2</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Telemundo</t>
+  </si>
+  <si>
+    <t>Universo</t>
   </si>
 </sst>
 </file>
@@ -503,9 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -547,12 +545,12 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -561,10 +559,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -578,10 +576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +620,7 @@
         <v>43137</v>
       </c>
       <c r="D2" s="4">
-        <v>43190</v>
+        <v>43921</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -633,61 +631,41 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
-        <v>43191</v>
+        <v>43137</v>
       </c>
       <c r="D3" s="4">
-        <v>43247</v>
-      </c>
-      <c r="E3">
+        <v>43190</v>
+      </c>
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
-        <v>43137</v>
+        <v>43191</v>
       </c>
       <c r="D4" s="4">
-        <v>43190</v>
-      </c>
-      <c r="E4" s="2">
+        <v>43247</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4">
-        <v>43191</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43247</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -739,7 +717,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
-    <t>toddler@10</t>
-  </si>
-  <si>
     <t>User1</t>
   </si>
   <si>
@@ -117,24 +114,19 @@
   </si>
   <si>
     <t>Universo</t>
+  </si>
+  <si>
+    <t>summer@10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,19 +149,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,9 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,38 +448,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>206534643</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;CClassification: NBCUniversal Internal </oddFooter>
   </headerFooter>
@@ -503,7 +487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,53 +502,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +565,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,75 +577,75 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
         <v>43137</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>43921</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
         <v>43137</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>43190</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
         <v>43191</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>43247</v>
       </c>
       <c r="E4">
@@ -695,34 +681,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
         <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
         <v>4000</v>
       </c>
     </row>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>User1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>LEGAL</t>
-  </si>
-  <si>
     <t>TcNo</t>
   </si>
   <si>
@@ -110,13 +107,10 @@
     <t>Business Affairs</t>
   </si>
   <si>
-    <t>Telemundo</t>
-  </si>
-  <si>
-    <t>Universo</t>
-  </si>
-  <si>
     <t>summer@10</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
   </si>
 </sst>
 </file>
@@ -457,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,10 +462,10 @@
         <v>206534643</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -485,10 +479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,19 +496,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -528,26 +522,9 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -562,10 +539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,22 +554,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -600,59 +577,39 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3">
-        <v>43137</v>
+        <v>43201</v>
       </c>
       <c r="D2" s="3">
-        <v>43921</v>
+        <v>43251</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3">
-        <v>43137</v>
+        <v>43252</v>
       </c>
       <c r="D3" s="3">
-        <v>43190</v>
-      </c>
-      <c r="E3" s="1">
+        <v>43339</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43191</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43247</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -681,13 +638,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>4000</v>
@@ -703,10 +660,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>4000</v>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>User1</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>BRAVO</t>
+  </si>
+  <si>
+    <t>LEGAL</t>
+  </si>
+  <si>
+    <t>Universal HD</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -479,9 +485,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -522,9 +528,26 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -542,7 +565,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="3">
-        <v>43201</v>
+        <v>43206</v>
       </c>
       <c r="D2" s="3">
         <v>43251</v>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -113,10 +113,10 @@
     <t>BRAVO</t>
   </si>
   <si>
-    <t>LEGAL</t>
-  </si>
-  <si>
     <t>Universal HD</t>
+  </si>
+  <si>
+    <t>Dan Harrison</t>
   </si>
 </sst>
 </file>
@@ -487,9 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -528,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\AmortTemplateAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>User1</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Dan Harrison</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>LEGAL</t>
+  </si>
+  <si>
+    <t>USA Network</t>
   </si>
 </sst>
 </file>
@@ -485,9 +494,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -549,6 +560,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -560,10 +588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +661,46 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43206</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43251</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43252</v>
+      </c>
+      <c r="D5" s="3">
+        <v>43339</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -644,10 +712,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +758,17 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\AmortTemplateAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Windows" sheetId="3" r:id="rId3"/>
     <sheet name="License" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>User1</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Cash</t>
   </si>
   <si>
+    <t>LEGAL</t>
+  </si>
+  <si>
     <t>TcNo</t>
   </si>
   <si>
@@ -89,53 +92,40 @@
     <t>License Fee</t>
   </si>
   <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>USA Network</t>
+  </si>
+  <si>
+    <t>summer@10</t>
+  </si>
+  <si>
+    <t>Mohammed Saquib [206534643]</t>
+  </si>
+  <si>
     <t>W2</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>Mohammed Saquib [ 206534643 ]</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Business Affairs</t>
-  </si>
-  <si>
-    <t>summer@10</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>Universal HD</t>
-  </si>
-  <si>
-    <t>Dan Harrison</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>LEGAL</t>
-  </si>
-  <si>
-    <t>USA Network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,16 +148,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,11 +442,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,11 +473,74 @@
       <c r="B2" s="2">
         <v>206534643</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;CClassification: NBCUniversal Internal </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -492,106 +552,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;CClassification: NBCUniversal Internal </oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,22 +569,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -626,79 +592,39 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
-        <v>43206</v>
+        <v>43208</v>
       </c>
       <c r="D2" s="3">
-        <v>43251</v>
+        <v>43404</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="3">
-        <v>43252</v>
+        <v>43405</v>
       </c>
       <c r="D3" s="3">
-        <v>43339</v>
-      </c>
-      <c r="E3">
+        <v>43465</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43206</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43251</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43252</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43339</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -712,10 +638,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,13 +653,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,31 +667,9 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
         <v>4000</v>
       </c>
     </row>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>User1</t>
   </si>
@@ -98,16 +98,13 @@
     <t>Network</t>
   </si>
   <si>
-    <t>USA Network</t>
-  </si>
-  <si>
     <t>summer@10</t>
   </si>
   <si>
     <t>Mohammed Saquib [206534643]</t>
   </si>
   <si>
-    <t>W2</t>
+    <t>Universo</t>
   </si>
 </sst>
 </file>
@@ -474,10 +471,10 @@
         <v>206534643</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +551,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -595,35 +592,15 @@
         <v>17</v>
       </c>
       <c r="C2" s="3">
-        <v>43208</v>
+        <v>43191</v>
       </c>
       <c r="D2" s="3">
-        <v>43404</v>
+        <v>43890</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43405</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43465</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -640,9 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -670,7 +645,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>4000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>User1</t>
   </si>
@@ -104,14 +104,17 @@
     <t>Mohammed Saquib [206534643]</t>
   </si>
   <si>
-    <t>Universo</t>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,9 +162,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,7 +479,7 @@
       <c r="B2" s="2">
         <v>206534643</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
@@ -493,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -536,8 +545,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>25</v>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -551,10 +560,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,17 +600,37 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3">
-        <v>43191</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43890</v>
+      <c r="C2" s="5">
+        <v>43137</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43861</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43862</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43921</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>LEGAL</t>
-  </si>
-  <si>
     <t>TcNo</t>
   </si>
   <si>
@@ -107,7 +104,10 @@
     <t>W2</t>
   </si>
   <si>
-    <t>BRAVO</t>
+    <t>Universal HD</t>
+  </si>
+  <si>
+    <t>Dan Harrison</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -480,10 +480,10 @@
         <v>206534643</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,19 +517,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -575,22 +575,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5">
         <v>43137</v>
@@ -618,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5">
         <v>43862</v>
@@ -659,13 +659,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>10000</v>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -104,10 +104,10 @@
     <t>W2</t>
   </si>
   <si>
-    <t>Universal HD</t>
-  </si>
-  <si>
-    <t>Dan Harrison</t>
+    <t>Business Affairs</t>
+  </si>
+  <si>
+    <t>Telemundo</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>User1</t>
   </si>
@@ -104,10 +104,13 @@
     <t>W2</t>
   </si>
   <si>
-    <t>Business Affairs</t>
-  </si>
-  <si>
-    <t>Telemundo</t>
+    <t>E!</t>
+  </si>
+  <si>
+    <t>Meeri Cunniff</t>
+  </si>
+  <si>
+    <t>TC2</t>
   </si>
 </sst>
 </file>
@@ -502,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -560,11 +563,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -631,6 +632,26 @@
       </c>
       <c r="F3" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43137</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43404</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>User1</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>TC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Affairs </t>
+  </si>
+  <si>
+    <t>Telemundo</t>
   </si>
 </sst>
 </file>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,9 +552,26 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -565,7 +588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17430" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>User1</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Telemundo</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Esquire Network</t>
+  </si>
+  <si>
+    <t>Doug Baughman</t>
   </si>
 </sst>
 </file>
@@ -509,10 +518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +552,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -573,6 +582,23 @@
       </c>
       <c r="E3" s="4" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -588,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +647,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -641,7 +667,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -661,16 +687,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5">
-        <v>43137</v>
+        <v>43435</v>
       </c>
       <c r="D4" s="5">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,9 +116,6 @@
     <t xml:space="preserve">Business Affairs </t>
   </si>
   <si>
-    <t>Telemundo</t>
-  </si>
-  <si>
     <t>TC3</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Doug Baughman</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
   </si>
 </sst>
 </file>
@@ -551,8 +551,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -564,12 +564,12 @@
         <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -595,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +615,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>

--- a/TestData/TestCaseData.xlsx
+++ b/TestData/TestCaseData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>User1</t>
   </si>
@@ -104,28 +104,13 @@
     <t>W2</t>
   </si>
   <si>
-    <t>E!</t>
-  </si>
-  <si>
-    <t>Meeri Cunniff</t>
-  </si>
-  <si>
     <t>TC2</t>
   </si>
   <si>
     <t xml:space="preserve">Business Affairs </t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Esquire Network</t>
-  </si>
-  <si>
-    <t>Doug Baughman</t>
-  </si>
-  <si>
-    <t>Oxygen</t>
+    <t>TeleXitos</t>
   </si>
 </sst>
 </file>
@@ -518,10 +503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,44 +546,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +598,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -667,7 +618,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -687,21 +638,41 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5">
-        <v>43435</v>
+        <v>43137</v>
       </c>
       <c r="D4" s="5">
-        <v>43465</v>
+        <v>43190</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>43191</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43251</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
     </row>
